--- a/das/LAB3.xlsx
+++ b/das/LAB3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9435" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EXA" sheetId="1" r:id="rId1"/>
@@ -9930,8 +9930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10478,7 +10478,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10633,7 +10633,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,8 +10818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11087,7 +11087,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
